--- a/interview/인터뷰 준비.xlsx
+++ b/interview/인터뷰 준비.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="데이터베이스" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>프로세스와 스레드의 차이는 무엇인가요?</t>
   </si>
@@ -50,6 +51,120 @@
   <si>
     <t>운영체제(프로세스)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOIN에 대해서 설명해 주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분리되어 저장된 데이터에서 원하는 결과를 도출하기 위해 여러 테이블을 조합할 필요가 있는데 이때 관련 있는 컬럼을 기준으로 행을 합쳐주는 연산을 말합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 조인(Inner Join)과 외부 조인(Outer Join)의 차이는 무엇인가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 조인은 테이블에서 일치하는 튜플 만 반환하고 외부 조인은 없는 데이터는 null로 채워 두 테이블의 모든 튜플을 반환합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규화에 대해서 설명해 주세요.</t>
+  </si>
+  <si>
+    <t>관계형 데이터베이스의 설계에서 중복을 최소화하기 위해 정규화 단계에 따라 데이터를 구조화하는 과정입니다. 기본 정규형으로 제 1,2,3 정규형,보이스코드 정규형이 있고 고급 정규형으로 제 4,5 정규형이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티셔닝과 샤딩에 대해서 설명해 주세요.</t>
+  </si>
+  <si>
+    <t>파티셔닝은 큰 테이블이나 인덱스를 관리하기 쉬운 크기로 같은 데이터 베이스 내에 분리하여 저장하는 방법이고 샤딩은 같은 테이블 스키마(구조)를 가진 데이터를 다수의 다른 데이터베이스에 분산하여 저장하는 기법을 뜻한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORM이란 무엇인가요?</t>
+  </si>
+  <si>
+    <t>Object Relational Mapping의 약자로 객체와 관계형 데이터베이스의 데이터를 자동으로 매핑(연결)해주는 것을 말한다. ORM을 통해 객체 간의 관계를 바탕으로 SQL을 자동으로 생성하여 ORM을 통해 객체 간의 관계를 바탕으로 SQL을 자동으로 생성하여 객체 모델과 관계형 모델 간의 불일치를 해결한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoSQL이란 무엇인가요?</t>
+  </si>
+  <si>
+    <t>NoSQL은 비관계형 데이터베이스로 대량의 분산된 데이터를 저장하고 조회하는 데 특화되어 있는 데이터 베이스 입니다. 관계를 정의하지 않기때문에 조인연산이 불가능하고 고정되지 않은 테이블 스키마를 갖는다는 특징이 있습니다.</t>
+  </si>
+  <si>
+    <t>스키마란 무엇인가요? (메타데이터)</t>
+  </si>
+  <si>
+    <t>스키마는 데이터베이스의 구조와 제약조건에 관한 전반적인 명세를 기술한 것입니다. 데이터 개체, 속성, 관계, 제약 조건 등에 관하여 기술한다.</t>
+  </si>
+  <si>
+    <t>인덱스란 무엇인가요? 어떻게 동작 하나요?</t>
+  </si>
+  <si>
+    <t>인덱스는 책의 목차와 비슷하게 테이블에 대한 검색 성능을 높여주는 자료 구조입니다. 특정 컬럼에 인덱스를 생성하면, 해당 컬럼의 데이터들을 정렬하여 별도의 메모리 공간에 데이터의 물리적 주소와 함께 저장됩니다. 이렇게 인덱스가 생성되면 앞으로 쿼리문에 "인덱스 생성 컬럼을 Where 조건으로 거는 등"의 작업을 하면 옵티마이저에서 판단하여 생성된 인덱스를 탈 수가 있습니다. 만약 인덱스를 타게 되면 인덱스에 저장되어 있는 데이터의 물리적 주소로 가서 데이터를 가져오는 식으로 동작을 하여 검색 속도의 향상을 가져올 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스의 알고리즘에는 어떤 것들이 있나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B-Tree 알고리즘과 Hash 알고리즘이 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Full Scan과 Index Range Scan 을 설명해주세요.</t>
+  </si>
+  <si>
+    <t>Table Full Scan은 해당 테이블에 전체 블록을 읽어서 사용자가 원하는 데이터를 찾는 방식이다. 그리고 Index Range Scan은 인덱스를 이용하여 데이터를 일정부분읽어서 ROWID로 테이블 레코드를 찾아가는 방식이다. (항상 index Range Scan이 빠른것은 아님)</t>
+  </si>
+  <si>
+    <t>트랜잭션이란 무엇인가요? 4가지 원칙을 포함해서 설명해 주세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터베이스의 상태를 변화시키기 해서 수행하는 작업의 단위를 뜻합니다. </t>
+  </si>
+  <si>
+    <t>트랜잭션이 만족해야하는 특성으로 원자성(Atomicity), 일관성(Consistency), 고립성(Isolation), 영구성(Durability) 4가지가 있습니다.</t>
+  </si>
+  <si>
+    <t>'원자성'은 트랜잭션의 내용이 DB 모두 반영되던가, 아니면 전혀 반영되지 않아야 한다는 것입니다.</t>
+  </si>
+  <si>
+    <t>'일관성'은 트랜잭션의 작업 처리 결과가 항상 일관성이 있어야 한다는 것입니다.</t>
+  </si>
+  <si>
+    <t>'독립성'은 둘 이상의 트랜잭션이 동시에 실행될 경우 어떤 하나의 트랜잭션이라도, 다른 트랜잭션에게 영향을 미치지 않아야함을 말합니다.</t>
+  </si>
+  <si>
+    <t>'지속성'은 트랜잭션이 성공적으로 완료된 경우, 결과가 영구적으로 반영되어야 한다는 것입니다.</t>
+  </si>
+  <si>
+    <t>트랜잭션의 격리 수준과 각 수준에서 발생할 수 있는 문제들에 대해 말해보세요.</t>
+  </si>
+  <si>
+    <t>트랜잭션의 격리 수준에는 낮은 순으로 Read Uncommitted, Read Committed, Repetable Read, Serializable 이 있습니다. 발생할 수 있는 문제들은 Dirty Read, Non-Retetable Read, Phantom Read 가 있습니다.</t>
+  </si>
+  <si>
+    <t>공유 락과 배타 락의 차이는 무엇인가요?</t>
+  </si>
+  <si>
+    <t>공유 락은 데이터를 읽을 때 사용되는 락입니다. 이러한 공유 Lock은 공유 Lock끼리는 동시에 접근이 가능합니다. 베타 락은 데이터를 변경하고자 할 때 사용합니다. 트랜잭션이 완료될 때 까지 유지되며, 락이 해제 되기 전까지 다른 트랜잭션은 해당 데이터에 접근할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>데드락이란 무엇이며, 어떻게 발생할까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에서 데드락이란 여러개의 트랜잭션들이 실행을 하지 못하고 서로 무한정 기다리는 상태를 의미합니다.데이터베이스는 트랜잭션들의 동시성을 제어하기 위해 Lock을 사용하는데 이것이 데이터의 일관성은 유지시켜주지만, 부작용으로 데드락 상태를 발생시킬 수 있습니다.</t>
   </si>
 </sst>
 </file>
@@ -423,10 +538,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
